--- a/02_MasterWifoMannheim/99_Backup/Course168.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course168.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD300D369A3B92311598A50B6408DF9DE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5574C9EB-180A-4155-B937-7847513FBB10}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>OPM 691 Supply Risk Management</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>In many industries, the implementation of various efficiency- and/or responsiveness-seeking supply (chain) initiatives has created conditions for supply disruptions to become more widespread and severe. for the firms involved. This module offers an introduction to the timely topic of supply risk management. part of the module), students are exposed to specific risk management issues in the context of supply chain and purchasing operations (second part of the module). Topics include the different types of supply risks, qualitative and quantitative methods, instruments, and frameworks for risk analysis and monitoring, as well as strategies for managing supply chains under conditions of risk.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The main intended learning outcome is a sound understanding of the key concepts and tools relevant to the management of risks in supply (chain) operations. Special emphasis is put on illustrate concepts and challenges.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registrationFurther Information on the registration</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (60 min.; 70%) plus assignments and presentations (30%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Christoph Bode</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Fall semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Operations Management (OPM)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -469,140 +420,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>OPM 691 Supply Risk Management</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>In many industries, the implementation of various efficiency- and/or responsiveness-seeking supply (chain) initiatives has created conditions for supply disruptions to become more widespread and severe. for the firms involved. This module offers an introduction to the timely topic of supply risk management. part of the module), students are exposed to specific risk management issues in the context of supply chain and purchasing operations (second part of the module). Topics include the different types of supply risks, qualitative and quantitative methods, instruments, and frameworks for risk analysis and monitoring, as well as strategies for managing supply chains under conditions of risk.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The main intended learning outcome is a sound understanding of the key concepts and tools relevant to the management of risks in supply (chain) operations. Special emphasis is put on illustrate concepts and challenges.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Operations Management (OPM)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Obligatory registrationFurther Information on the registration</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Courses Hours per week Self-study Lecture 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (60 min.; 70%) plus assignments and presentations (30%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Christoph Bode</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FWS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Math., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
